--- a/Excel/delay.xlsx
+++ b/Excel/delay.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -133,36 +133,18 @@
     <t>|&lt; Effect Menu</t>
   </si>
   <si>
-    <t>विलंब - धाडसी मॅन्युअल</t>
-  </si>
-  <si>
     <t>विलंब</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
     <t>क्रमिक प्रतिध्वनी आणि क्रमिक पुनरावृत्तीची संख्या, मोठेपणा आणि खेळपट्टी दरम्यान चल विलंब वेळाकरिता पर्यायांसह एकाधिक प्रतिध्वनी प्रभाव तयार करण्यासाठी विलंब वापरा.</t>
   </si>
   <si>
-    <t>यावर प्रवेश: प्रभाव&gt; विलंब ...</t>
-  </si>
-  <si>
     <t>विलंब प्रकार</t>
   </si>
   <si>
     <t>नियमितः प्रत्येक प्रतिध्वनी समान प्रमाणात विलंबित होतो.</t>
   </si>
   <si>
-    <t>बाउन्सिंग बॉल: प्रतिध्वनी अधिक जवळ येतांना वेगवान होते.</t>
-  </si>
-  <si>
-    <t>रिव्हर्स बाउंसिंग बॉल: प्रतिध्वनी वाढत्या वेगळ्या (हळूवार) झाल्याने वाढते.</t>
-  </si>
-  <si>
     <t>प्रतिध्वनी विलंब पातळी (डीबी)</t>
   </si>
   <si>
@@ -178,12 +160,6 @@
     <t>विलंब वेळ (सेकंद)</t>
   </si>
   <si>
-    <t>हे प्रतिध्वनी दरम्यानचा वेळ नियंत्रित करते. बाउंसिंग बॉल प्रकारच्या विलंबांसाठी, हे सर्वात लांब (सर्वात धीमे) प्रतिध्वनीसाठी विलंब वेळ निश्चित करते.</t>
-  </si>
-  <si>
-    <t>खेळपट्टीवर परिणाम</t>
-  </si>
-  <si>
     <t>खेळपट्टी / टेम्पो: बदलाच्या वेग परिणामामुळे खेळपट्टीवर बदल होऊ शकतो त्याच प्रकारे खेळपट्टी बदलते. प्रत्येक प्रतिध्वनीची ध्वनी गुणवत्ता खूप चांगली आहे, परंतु खेळपट्टीमध्ये वाढ झाल्याने उशीरा ऑडिओ वेगवान होईल आणि खेळपट्टीमध्ये घट कमी होते. "पिच / टेम्पो" लागू न झालेल्या इतर ट्रॅकमध्ये कोणत्याही प्रतिध्वनींसह प्रतिध्वनी स्पष्टपणे विभक्त केल्या जातील.</t>
   </si>
   <si>
@@ -242,6 +218,30 @@
   </si>
   <si>
     <t>| &lt;प्रभाव मेनू</t>
+  </si>
+  <si>
+    <t>विलंब - ऑड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ओड्यासिटी विकासाच्या माहितीपुस्तिकेवरून </t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>याद्वारे प्रवेश केलेले: प्रभाव&gt; विलंब ...</t>
+  </si>
+  <si>
+    <t>उसळणारा चेंडू: प्रतिध्वनी एकत्र (वेगवान) जवळ येऊ लागतात.</t>
+  </si>
+  <si>
+    <t>उलट उसळणारा चेंडू : प्रतिध्वनी वाढत्या वेगळ्या (हळूवारपणे) होण्यास मदत करते.</t>
+  </si>
+  <si>
+    <t>हे प्रतिध्वनी दरम्यानचा वेळ नियंत्रित करते. उसळणारा चेंडू प्रकारच्या विलंबांसाठी, हे सर्वात लांब (सर्वात धीमे) प्रतिध्वनीसाठी विलंब वेळ निश्चित करते.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> उच्चनीचतेचा प्रभाव बदल</t>
   </si>
 </sst>
 </file>
@@ -601,9 +601,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -621,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -632,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -643,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -654,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -665,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -676,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -687,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -698,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -709,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -720,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -731,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -742,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -753,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -764,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -775,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -786,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -797,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -808,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -819,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -830,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -841,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -852,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -863,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -874,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -885,7 +891,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -896,7 +902,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -907,7 +913,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -918,7 +924,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -929,7 +935,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -940,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -951,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -962,7 +968,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -973,7 +979,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -984,7 +990,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -995,7 +1001,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1006,7 +1012,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1017,7 +1023,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/delay.xlsx
+++ b/Excel/delay.xlsx
@@ -160,12 +160,6 @@
     <t>विलंब वेळ (सेकंद)</t>
   </si>
   <si>
-    <t>खेळपट्टी / टेम्पो: बदलाच्या वेग परिणामामुळे खेळपट्टीवर बदल होऊ शकतो त्याच प्रकारे खेळपट्टी बदलते. प्रत्येक प्रतिध्वनीची ध्वनी गुणवत्ता खूप चांगली आहे, परंतु खेळपट्टीमध्ये वाढ झाल्याने उशीरा ऑडिओ वेगवान होईल आणि खेळपट्टीमध्ये घट कमी होते. "पिच / टेम्पो" लागू न झालेल्या इतर ट्रॅकमध्ये कोणत्याही प्रतिध्वनींसह प्रतिध्वनी स्पष्टपणे विभक्त केल्या जातील.</t>
-  </si>
-  <si>
-    <t>एलक्यू पिच शिफ्टः चेंज पिच इफेक्ट प्रमाणेच टेम्पो कायम ठेवत खेळपट्टी बदलते. प्रत्येक प्रतिध्वनीची ध्वनी गुणवत्ता "पिच / टेंपो" प्रभावापेक्षा (दर्जेदार ध्वनीवरील अतिरिक्त अतिरिक्त प्रतिध्वनीसह) कमी गुणवत्तेची असते आणि विलंब वेळ बर्‍याचदा निर्दिष्ट केल्यापेक्षा थोडा जास्त असेल. तथापि, मनोरंजक "आवर्त" प्रभाव तयार केला जाऊ शकतो.</t>
-  </si>
-  <si>
     <t>प्रति प्रतिध्वनी खेळपट्टीवर बदल (सेमीटोन)</t>
   </si>
   <si>
@@ -187,30 +181,15 @@
     <t>नाहीः प्रक्रिया केलेला ऑडिओ मूळ निवडीच्या समान लांबीवर सुव्यवस्थित आहे. मूळ निवड संपल्यानंतर उद्भवलेली कोणतीही प्रतिध्वनी हटविली जाईल. आपल्याला प्रकल्पातील इतर ट्रॅकसह विलंबित ट्रॅक संकालित करणे आवश्यक असल्यास हा पर्याय निवडा.</t>
   </si>
   <si>
-    <t>बटणे</t>
-  </si>
-  <si>
     <t>कमांड बटणावर क्लिक केल्याने खालील परिणाम मिळतात:</t>
   </si>
   <si>
     <t>व्यवस्थापित करा ड्रॉपडाउन मेनू आपल्याला साधनाचे प्रीसेट सेट करण्यास आणि टूलबद्दल काही तपशील पाहण्यास सक्षम करते. तपशीलांसाठी प्रीसेट्स व्यवस्थापित करा पहा</t>
   </si>
   <si>
-    <t>पूर्वावलोकन ऑडिओमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ऑडिओला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
-  </si>
-  <si>
     <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या सेटिंगद्वारे निश्चित केली जाते, डीफॉल्ट सेटिंग 6 सेकंद असते.</t>
   </si>
   <si>
-    <t>ठीक आहे सध्याच्या प्रभाव सेटिंग्जसह निवडलेल्या ऑडिओवर प्रभाव लागू करते आणि संवाद बंद करते</t>
-  </si>
-  <si>
-    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ऑडिओमध्ये कोणताही बदल होत नाही</t>
-  </si>
-  <si>
-    <t>या पृष्ठावरील मॅन्युअलमध्ये आपल्याला योग्य पृष्ठावर आणते</t>
-  </si>
-  <si>
     <t>दुवे</t>
   </si>
   <si>
@@ -241,7 +220,28 @@
     <t>हे प्रतिध्वनी दरम्यानचा वेळ नियंत्रित करते. उसळणारा चेंडू प्रकारच्या विलंबांसाठी, हे सर्वात लांब (सर्वात धीमे) प्रतिध्वनीसाठी विलंब वेळ निश्चित करते.</t>
   </si>
   <si>
-    <t xml:space="preserve"> उच्चनीचतेचा प्रभाव बदल</t>
+    <t xml:space="preserve"> खेळपट्टीचा प्रभाव बदल</t>
+  </si>
+  <si>
+    <t>खेळपट्टी / टेम्पो: बदलाच्या वेग परिणामामुळे खेळपट्टीवर बदल होऊ शकतो त्याच प्रकारे खेळपट्टी बदलते. प्रत्येक प्रतिध्वनीची ध्वनी गुणवत्ता खूप चांगली आहे, परंतु खेळपट्टीमध्ये वाढ झाल्याने उशीरा ध्वनी वेगवान होईल आणि खेळपट्टीमध्ये घट कमी होते. "खेळपट्टी / टेम्पो" लागू न झालेल्या इतर गीतपट्टामध्ये कोणत्याही प्रतिध्वनींसह प्रतिध्वनी स्पष्टपणे विभक्त केल्या जातील.</t>
+  </si>
+  <si>
+    <t>एलक्यू खेळपट्टीवर शिफ्ट : चेंज पिच इफेक्ट प्रमाणेच टेम्पो कायम ठेवत खेळपट्टी बदलते. प्रत्येक प्रतिध्वनीची ध्वनी गुणवत्ता "खेळपट्टी / टेंपो" प्रभावापेक्षा (दर्जेदार ध्वनीवरील अतिरिक्त अतिरिक्त प्रतिध्वनीसह) कमी गुणवत्तेची असते आणि विलंब वेळ बर्‍याचदा निर्दिष्ट केल्यापेक्षा थोडा जास्त असेल. तथापि, मनोरंजक "आवर्त" प्रभाव तयार केला जाऊ शकतो.</t>
+  </si>
+  <si>
+    <t>बटण</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकन ध्वनीमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ध्वनीला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
+  </si>
+  <si>
+    <t>ठीक आहे सध्याच्या प्रभाव सेटिंग्जसह निवडलेल्या ध्वनीवर प्रभाव लागू करते आणि संवाद बंद करते</t>
+  </si>
+  <si>
+    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ध्वनीमध्ये कोणताही बदल होत नाही</t>
+  </si>
+  <si>
+    <t>या पृष्ठावरील माहितीपुस्तिकामध्ये आपल्याला योग्य पृष्ठावर आणते</t>
   </si>
 </sst>
 </file>
@@ -300,11 +300,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +603,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -649,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -660,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -682,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -715,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -726,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -792,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -803,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -813,8 +814,8 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -824,8 +825,8 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>49</v>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -836,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -847,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -858,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -869,7 +870,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -880,7 +881,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -891,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -902,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -913,7 +914,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -924,7 +925,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -935,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -946,7 +947,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -957,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -968,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -979,7 +980,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -990,7 +991,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1001,7 +1002,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1012,7 +1013,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1023,7 +1024,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
